--- a/report/kmin_extension_strobemers.xlsx
+++ b/report/kmin_extension_strobemers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaopeng/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennstateoffice365-my.sharepoint.com/personal/sml6467_psu_edu/Documents/Github/Strobemer_extension/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2747D384-A1AC-FB49-9427-50AEFF0FF667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{2747D384-A1AC-FB49-9427-50AEFF0FF667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8213914-BF7F-A142-9813-3DF11A45C3EE}"/>
   <bookViews>
     <workbookView xWindow="7500" yWindow="2020" windowWidth="29880" windowHeight="17440" xr2:uid="{0F5F3C69-F5DF-3B49-A6DE-BAB95FF21D24}"/>
   </bookViews>
@@ -95,12 +95,6 @@
     <t>p = 0.1</t>
   </si>
   <si>
-    <t>p = 0.01, regular</t>
-  </si>
-  <si>
-    <t>p = 0.01, trunc</t>
-  </si>
-  <si>
     <t>k=42</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
   </si>
   <si>
     <t>[3, 14, 25, 50]</t>
-  </si>
-  <si>
-    <t>p = 0.05, regular</t>
   </si>
   <si>
     <t>k=36</t>
@@ -140,7 +131,16 @@
     <t>[3, 8, 25, 50]</t>
   </si>
   <si>
-    <t>p = 0.05, trunc</t>
+    <t>p = 0.01, extend regular</t>
+  </si>
+  <si>
+    <t>p = 0.01, extend trunc</t>
+  </si>
+  <si>
+    <t>p = 0.05, extend regular</t>
+  </si>
+  <si>
+    <t>p = 0.05, extend trunc</t>
   </si>
 </sst>
 </file>
@@ -199,16 +199,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0768AE58-21D4-0940-9BF9-100A90CCAF8C}">
   <dimension ref="A1:AA71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="T73" sqref="T73"/>
+    <sheetView tabSelected="1" topLeftCell="H29" workbookViewId="0">
+      <selection activeCell="S51" sqref="S51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,31 +543,31 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1178,43 +1178,43 @@
       <c r="O14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="U15" s="4"/>
+    <row r="15" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="U15" s="2"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="I19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="P19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="W19" s="3" t="s">
+      <c r="B19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="I19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="P19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="W19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
@@ -1287,7 +1287,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>64.14</v>
@@ -1305,7 +1305,7 @@
         <v>7</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J21">
         <v>64.13</v>
@@ -1323,7 +1323,7 @@
         <v>7</v>
       </c>
       <c r="P21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q21">
         <v>12.25</v>
@@ -1341,7 +1341,7 @@
         <v>7</v>
       </c>
       <c r="W21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X21">
         <v>12.25</v>
@@ -1509,7 +1509,7 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24">
         <v>63.22</v>
@@ -1527,7 +1527,7 @@
         <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J24">
         <v>63.14</v>
@@ -1545,7 +1545,7 @@
         <v>13</v>
       </c>
       <c r="P24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q24">
         <v>11.53</v>
@@ -1563,7 +1563,7 @@
         <v>13</v>
       </c>
       <c r="W24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X24">
         <v>11.52</v>
@@ -1583,7 +1583,7 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <v>60.64</v>
@@ -1601,7 +1601,7 @@
         <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J25">
         <v>60.47</v>
@@ -1619,7 +1619,7 @@
         <v>13</v>
       </c>
       <c r="P25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q25">
         <v>9.65</v>
@@ -1637,7 +1637,7 @@
         <v>13</v>
       </c>
       <c r="W25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X25">
         <v>9.6199999999999992</v>
@@ -1657,7 +1657,7 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C26">
         <v>63.59</v>
@@ -1675,7 +1675,7 @@
         <v>16</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J26">
         <v>63.51</v>
@@ -1693,7 +1693,7 @@
         <v>16</v>
       </c>
       <c r="P26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q26">
         <v>11.63</v>
@@ -1711,7 +1711,7 @@
         <v>16</v>
       </c>
       <c r="W26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X26">
         <v>11.61</v>
@@ -1731,7 +1731,7 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>60.76</v>
@@ -1749,7 +1749,7 @@
         <v>16</v>
       </c>
       <c r="I27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J27">
         <v>60.58</v>
@@ -1767,7 +1767,7 @@
         <v>16</v>
       </c>
       <c r="P27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q27">
         <v>10.029999999999999</v>
@@ -1785,7 +1785,7 @@
         <v>16</v>
       </c>
       <c r="W27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X27">
         <v>10</v>
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C28">
         <v>62.93</v>
@@ -1823,7 +1823,7 @@
         <v>17</v>
       </c>
       <c r="I28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J28">
         <v>62.82</v>
@@ -1841,7 +1841,7 @@
         <v>17</v>
       </c>
       <c r="P28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q28">
         <v>11.21</v>
@@ -1859,7 +1859,7 @@
         <v>17</v>
       </c>
       <c r="W28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X28">
         <v>11.18</v>
@@ -1879,7 +1879,7 @@
         <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C29">
         <v>58.28</v>
@@ -1897,7 +1897,7 @@
         <v>17</v>
       </c>
       <c r="I29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J29">
         <v>58.01</v>
@@ -1915,7 +1915,7 @@
         <v>17</v>
       </c>
       <c r="P29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q29">
         <v>8.86</v>
@@ -1933,7 +1933,7 @@
         <v>17</v>
       </c>
       <c r="W29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X29">
         <v>8.81</v>
@@ -1949,34 +1949,34 @@
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="I33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="P33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="W33" s="3" t="s">
+      <c r="B33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="I33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="P33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="W33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
@@ -2049,7 +2049,7 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C35">
         <v>68.430000000000007</v>
@@ -2067,7 +2067,7 @@
         <v>7</v>
       </c>
       <c r="I35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J35">
         <v>68.41</v>
@@ -2085,7 +2085,7 @@
         <v>7</v>
       </c>
       <c r="P35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q35">
         <v>16.53</v>
@@ -2103,7 +2103,7 @@
         <v>7</v>
       </c>
       <c r="W35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="X35">
         <v>16.54</v>
@@ -2271,7 +2271,7 @@
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C38">
         <v>67.12</v>
@@ -2289,7 +2289,7 @@
         <v>13</v>
       </c>
       <c r="I38" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J38">
         <v>67.02</v>
@@ -2307,7 +2307,7 @@
         <v>13</v>
       </c>
       <c r="P38" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q38">
         <v>15.33</v>
@@ -2325,7 +2325,7 @@
         <v>13</v>
       </c>
       <c r="W38" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X38">
         <v>15.32</v>
@@ -2345,7 +2345,7 @@
         <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C39">
         <v>64.36</v>
@@ -2363,7 +2363,7 @@
         <v>13</v>
       </c>
       <c r="I39" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J39">
         <v>64.09</v>
@@ -2381,7 +2381,7 @@
         <v>13</v>
       </c>
       <c r="P39" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q39">
         <v>12.8</v>
@@ -2399,7 +2399,7 @@
         <v>13</v>
       </c>
       <c r="W39" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="X39">
         <v>12.72</v>
@@ -2419,7 +2419,7 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C40">
         <v>67.52</v>
@@ -2437,7 +2437,7 @@
         <v>16</v>
       </c>
       <c r="I40" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J40">
         <v>67.400000000000006</v>
@@ -2455,7 +2455,7 @@
         <v>16</v>
       </c>
       <c r="P40" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q40">
         <v>15.69</v>
@@ -2473,7 +2473,7 @@
         <v>16</v>
       </c>
       <c r="W40" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X40">
         <v>15.67</v>
@@ -2493,7 +2493,7 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C41">
         <v>64.400000000000006</v>
@@ -2511,7 +2511,7 @@
         <v>16</v>
       </c>
       <c r="I41" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J41">
         <v>64.13</v>
@@ -2529,7 +2529,7 @@
         <v>16</v>
       </c>
       <c r="P41" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q41">
         <v>13.26</v>
@@ -2547,7 +2547,7 @@
         <v>16</v>
       </c>
       <c r="W41" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="X41">
         <v>13.2</v>
@@ -2567,7 +2567,7 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C42">
         <v>66.849999999999994</v>
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="I42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J42">
         <v>66.709999999999994</v>
@@ -2603,7 +2603,7 @@
         <v>17</v>
       </c>
       <c r="P42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q42">
         <v>15.06</v>
@@ -2621,7 +2621,7 @@
         <v>17</v>
       </c>
       <c r="W42" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X42">
         <v>15.03</v>
@@ -2641,7 +2641,7 @@
         <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C43">
         <v>61.87</v>
@@ -2659,7 +2659,7 @@
         <v>17</v>
       </c>
       <c r="I43" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J43">
         <v>61.52</v>
@@ -2677,7 +2677,7 @@
         <v>17</v>
       </c>
       <c r="P43" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q43">
         <v>11.86</v>
@@ -2695,7 +2695,7 @@
         <v>17</v>
       </c>
       <c r="W43" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="X43">
         <v>11.78</v>
@@ -2711,34 +2711,34 @@
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="I47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="P47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="W47" s="3" t="s">
+      <c r="B47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="I47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="P47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="W47" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
@@ -2811,7 +2811,7 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C49">
         <v>73.02</v>
@@ -2829,7 +2829,7 @@
         <v>7</v>
       </c>
       <c r="I49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J49">
         <v>73</v>
@@ -2847,7 +2847,7 @@
         <v>7</v>
       </c>
       <c r="P49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Q49">
         <v>22.52</v>
@@ -2865,7 +2865,7 @@
         <v>7</v>
       </c>
       <c r="W49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X49">
         <v>22.54</v>
@@ -3033,7 +3033,7 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C52">
         <v>71.41</v>
@@ -3051,7 +3051,7 @@
         <v>13</v>
       </c>
       <c r="I52" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J52">
         <v>71.31</v>
@@ -3069,7 +3069,7 @@
         <v>13</v>
       </c>
       <c r="P52" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q52">
         <v>20.36</v>
@@ -3087,7 +3087,7 @@
         <v>13</v>
       </c>
       <c r="W52" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X52">
         <v>20.36</v>
@@ -3107,7 +3107,7 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C53">
         <v>68.66</v>
@@ -3125,7 +3125,7 @@
         <v>13</v>
       </c>
       <c r="I53" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J53">
         <v>68.13</v>
@@ -3143,7 +3143,7 @@
         <v>13</v>
       </c>
       <c r="P53" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q53">
         <v>17.53</v>
@@ -3161,7 +3161,7 @@
         <v>13</v>
       </c>
       <c r="W53" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="X53">
         <v>17.38</v>
@@ -3181,7 +3181,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C54">
         <v>71.8</v>
@@ -3199,7 +3199,7 @@
         <v>16</v>
       </c>
       <c r="I54" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J54">
         <v>71.66</v>
@@ -3217,7 +3217,7 @@
         <v>16</v>
       </c>
       <c r="P54" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q54">
         <v>20.9</v>
@@ -3235,7 +3235,7 @@
         <v>16</v>
       </c>
       <c r="W54" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X54">
         <v>20.87</v>
@@ -3255,7 +3255,7 @@
         <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C55">
         <v>68.319999999999993</v>
@@ -3273,7 +3273,7 @@
         <v>16</v>
       </c>
       <c r="I55" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J55">
         <v>67.97</v>
@@ -3291,7 +3291,7 @@
         <v>16</v>
       </c>
       <c r="P55" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q55">
         <v>17.71</v>
@@ -3309,7 +3309,7 @@
         <v>16</v>
       </c>
       <c r="W55" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="X55">
         <v>17.62</v>
@@ -3329,7 +3329,7 @@
         <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C56">
         <v>70.97</v>
@@ -3347,7 +3347,7 @@
         <v>17</v>
       </c>
       <c r="I56" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J56">
         <v>70.77</v>
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="P56" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Q56">
         <v>20.2</v>
@@ -3383,7 +3383,7 @@
         <v>17</v>
       </c>
       <c r="W56" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X56">
         <v>20.16</v>
@@ -3403,7 +3403,7 @@
         <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C57">
         <v>65.56</v>
@@ -3421,7 +3421,7 @@
         <v>17</v>
       </c>
       <c r="I57" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J57">
         <v>65.13</v>
@@ -3439,7 +3439,7 @@
         <v>17</v>
       </c>
       <c r="P57" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q57">
         <v>15.71</v>
@@ -3457,7 +3457,7 @@
         <v>17</v>
       </c>
       <c r="W57" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="X57">
         <v>15.58</v>
@@ -3473,34 +3473,34 @@
       </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B61" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="I61" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="P61" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-      <c r="W61" s="3" t="s">
+      <c r="B61" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="I61" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="P61" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="W61" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
-      <c r="AA61" s="3"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="5"/>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
@@ -3573,7 +3573,7 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C63">
         <v>77.95</v>
@@ -3591,7 +3591,7 @@
         <v>7</v>
       </c>
       <c r="I63" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J63">
         <v>77.930000000000007</v>
@@ -3609,7 +3609,7 @@
         <v>7</v>
       </c>
       <c r="P63" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Q63">
         <v>30.78</v>
@@ -3627,7 +3627,7 @@
         <v>7</v>
       </c>
       <c r="W63" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="X63">
         <v>30.81</v>
@@ -3795,7 +3795,7 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C66">
         <v>76.099999999999994</v>
@@ -3813,7 +3813,7 @@
         <v>13</v>
       </c>
       <c r="I66" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J66">
         <v>75.930000000000007</v>
@@ -3831,7 +3831,7 @@
         <v>13</v>
       </c>
       <c r="P66" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q66">
         <v>27.19</v>
@@ -3849,7 +3849,7 @@
         <v>13</v>
       </c>
       <c r="W66" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X66">
         <v>27.14</v>
@@ -3869,7 +3869,7 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C67">
         <v>72.7</v>
@@ -3887,7 +3887,7 @@
         <v>13</v>
       </c>
       <c r="I67" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J67">
         <v>72.14</v>
@@ -3905,7 +3905,7 @@
         <v>13</v>
       </c>
       <c r="P67" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q67">
         <v>22.58</v>
@@ -3923,7 +3923,7 @@
         <v>13</v>
       </c>
       <c r="W67" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="X67">
         <v>22.42</v>
@@ -3943,7 +3943,7 @@
         <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C68">
         <v>76.27</v>
@@ -3961,7 +3961,7 @@
         <v>16</v>
       </c>
       <c r="I68" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J68">
         <v>76.11</v>
@@ -3979,7 +3979,7 @@
         <v>16</v>
       </c>
       <c r="P68" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q68">
         <v>27.89</v>
@@ -3997,7 +3997,7 @@
         <v>16</v>
       </c>
       <c r="W68" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X68">
         <v>27.86</v>
@@ -4017,7 +4017,7 @@
         <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C69">
         <v>72.430000000000007</v>
@@ -4035,7 +4035,7 @@
         <v>16</v>
       </c>
       <c r="I69" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J69">
         <v>71.95</v>
@@ -4053,7 +4053,7 @@
         <v>16</v>
       </c>
       <c r="P69" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q69">
         <v>23.61</v>
@@ -4071,7 +4071,7 @@
         <v>16</v>
       </c>
       <c r="W69" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="X69">
         <v>23.44</v>
@@ -4091,7 +4091,7 @@
         <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C70">
         <v>75.510000000000005</v>
@@ -4109,7 +4109,7 @@
         <v>17</v>
       </c>
       <c r="I70" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J70">
         <v>75.3</v>
@@ -4127,7 +4127,7 @@
         <v>17</v>
       </c>
       <c r="P70" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q70">
         <v>27.02</v>
@@ -4145,7 +4145,7 @@
         <v>17</v>
       </c>
       <c r="W70" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X70">
         <v>26.97</v>
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C71">
         <v>69.17</v>
@@ -4183,7 +4183,7 @@
         <v>17</v>
       </c>
       <c r="I71" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J71">
         <v>68.66</v>
@@ -4201,7 +4201,7 @@
         <v>17</v>
       </c>
       <c r="P71" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q71">
         <v>20.99</v>
@@ -4219,7 +4219,7 @@
         <v>17</v>
       </c>
       <c r="W71" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="X71">
         <v>20.81</v>
@@ -4236,25 +4236,25 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="I33:M33"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="P1:T1"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="P19:T19"/>
+    <mergeCell ref="W19:AA19"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="W33:AA33"/>
+    <mergeCell ref="P47:T47"/>
+    <mergeCell ref="W47:AA47"/>
     <mergeCell ref="P61:T61"/>
     <mergeCell ref="W61:AA61"/>
     <mergeCell ref="B47:F47"/>
     <mergeCell ref="I47:M47"/>
     <mergeCell ref="B61:F61"/>
     <mergeCell ref="I61:M61"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="W19:AA19"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="W33:AA33"/>
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="W47:AA47"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="I33:M33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
